--- a/task-1/ArrayFormulas.xlsx
+++ b/task-1/ArrayFormulas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артур\Desktop\data-analysis\ITMO-Data-Analysis\task-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53618146-670E-4475-B459-5DE13350CABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187B5BD-96E6-4047-B5BB-3C86575A9C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1980" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="3255" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Товарный чек" sheetId="1" r:id="rId1"/>
-    <sheet name="Мой_Сценарий" sheetId="2" r:id="rId2"/>
+    <sheet name="Структура сценария" sheetId="3" r:id="rId2"/>
+    <sheet name="Мой_Сценарий" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Товарный чек'!$C$2:$C$5</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Товар</t>
   </si>
@@ -109,12 +110,83 @@
   <si>
     <t>"- значения которые могут меняться</t>
   </si>
+  <si>
+    <t>$B$2</t>
+  </si>
+  <si>
+    <t>$C$2</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>$C$3</t>
+  </si>
+  <si>
+    <t>$B$4</t>
+  </si>
+  <si>
+    <t>$C$4</t>
+  </si>
+  <si>
+    <t>$B$5</t>
+  </si>
+  <si>
+    <t>$C$5</t>
+  </si>
+  <si>
+    <t>$C$7</t>
+  </si>
+  <si>
+    <t>Вариант исходный</t>
+  </si>
+  <si>
+    <t>Author: Arthur Kupriyanov ; 
+Last-Modified: 20.10.2019 ;
+Version: 1.0.0-SNAPSHOT
+Автор изменений: Артур , 20.10.2019</t>
+  </si>
+  <si>
+    <t>Вариант один</t>
+  </si>
+  <si>
+    <t>Author: Arthur;
+Автор изменений: Артур , 20.10.2019</t>
+  </si>
+  <si>
+    <t>Вариант два</t>
+  </si>
+  <si>
+    <t>Author: Arthur
+Автор изменений: Артур , 20.10.2019</t>
+  </si>
+  <si>
+    <t>Структура сценария</t>
+  </si>
+  <si>
+    <t>Изменяемые:</t>
+  </si>
+  <si>
+    <t>Текущие значения:</t>
+  </si>
+  <si>
+    <t>Результат:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Примечания: столбец ''Текущие значения'' представляет значения изменяемых ячеек в </t>
+  </si>
+  <si>
+    <t>момент создания Итогового отчета по Сценарию. Изменяемые ячейки для каждого</t>
+  </si>
+  <si>
+    <t>сценария выделены серым цветом.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -160,8 +232,40 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +302,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -293,6 +409,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -305,7 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +485,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal_Sales Summary " xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -677,7 +859,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:C11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -762,11 +944,270 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07539C1-CB61-4E2D-8A59-49CAABE3CACA}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="2:7" ht="15" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19">
+        <v>8</v>
+      </c>
+      <c r="E6" s="29">
+        <v>8</v>
+      </c>
+      <c r="F6" s="29">
+        <v>14</v>
+      </c>
+      <c r="G6" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="19">
+        <v>9</v>
+      </c>
+      <c r="E7" s="29">
+        <v>9</v>
+      </c>
+      <c r="F7" s="29">
+        <v>12</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19">
+        <v>7</v>
+      </c>
+      <c r="E8" s="29">
+        <v>7</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="19">
+        <v>13</v>
+      </c>
+      <c r="E10" s="29">
+        <v>13</v>
+      </c>
+      <c r="F10" s="19">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19">
+        <v>7</v>
+      </c>
+      <c r="E11" s="29">
+        <v>7</v>
+      </c>
+      <c r="F11" s="19">
+        <v>7</v>
+      </c>
+      <c r="G11" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="19">
+        <v>22</v>
+      </c>
+      <c r="E12" s="29">
+        <v>22</v>
+      </c>
+      <c r="F12" s="19">
+        <v>22</v>
+      </c>
+      <c r="G12" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19">
+        <v>4</v>
+      </c>
+      <c r="E13" s="29">
+        <v>4</v>
+      </c>
+      <c r="F13" s="19">
+        <v>4</v>
+      </c>
+      <c r="G13" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" ht="13.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="20">
+        <v>258</v>
+      </c>
+      <c r="E15" s="20">
+        <v>258</v>
+      </c>
+      <c r="F15" s="20">
+        <v>352</v>
+      </c>
+      <c r="G15" s="20">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA51F0D-78D2-4F28-A829-34BC55B8B4A1}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -797,6 +1238,10 @@
       <c r="C2" s="15">
         <v>9</v>
       </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>72</v>
+      </c>
       <c r="H2" s="18"/>
       <c r="I2" t="s">
         <v>9</v>
@@ -812,6 +1257,10 @@
       <c r="C3" s="15">
         <v>1</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">B3*C3</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -823,6 +1272,10 @@
       <c r="C4" s="15">
         <v>7</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -833,6 +1286,10 @@
       </c>
       <c r="C5" s="17">
         <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -840,7 +1297,10 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="13">
+        <f>SUM(D2:D5)</f>
+        <v>258</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -848,7 +1308,7 @@
       </c>
     </row>
   </sheetData>
-  <scenarios current="0" show="0" sqref="B13:B19">
+  <scenarios current="0" show="0" sqref="C7">
     <scenario name="Вариант исходный" locked="1" count="8" user="Артур" comment="Author: Arthur Kupriyanov ; _x000a_Last-Modified: 20.10.2019 ;_x000a_Version: 1.0.0-SNAPSHOT_x000a_Автор изменений: Артур , 20.10.2019">
       <inputCells r="B2" val="8"/>
       <inputCells r="C2" val="9"/>

--- a/task-1/ArrayFormulas.xlsx
+++ b/task-1/ArrayFormulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артур\Desktop\data-analysis\ITMO-Data-Analysis\task-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187B5BD-96E6-4047-B5BB-3C86575A9C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF722B-4DEA-4401-8798-D945995CFAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3255" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5475" yWindow="3600" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Товарный чек" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
   </sheetPr>
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA51F0D-78D2-4F28-A829-34BC55B8B4A1}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,10 +1238,6 @@
       <c r="C2" s="15">
         <v>9</v>
       </c>
-      <c r="D2">
-        <f>B2*C2</f>
-        <v>72</v>
-      </c>
       <c r="H2" s="18"/>
       <c r="I2" t="s">
         <v>9</v>
@@ -1257,10 +1253,6 @@
       <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">B3*C3</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1272,10 +1264,6 @@
       <c r="C4" s="15">
         <v>7</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1286,10 +1274,6 @@
       </c>
       <c r="C5" s="17">
         <v>4</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -1298,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="13">
-        <f>SUM(D2:D5)</f>
+        <f t="array" ref="C7">SUM(B2:B5*C2:C5)</f>
         <v>258</v>
       </c>
     </row>
